--- a/input.xlsx
+++ b/input.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17C80541-E074-462E-8BAA-059AB727A428}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
     <t>ag3ncyA3</t>
   </si>
   <si>
-    <t>VV-02581</t>
+    <t>VV-02191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,12 +69,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -414,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,13 +433,13 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -451,7 +447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -464,7 +460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -477,13 +473,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="a10f9ac0-5937-4b4f-b459-96aedd9ed2c5" origin="userSelected">
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="a10f9ac0-5937-4b4f-b459-96aedd9ed2c5">
   <element uid="9920fcc9-9f43-4d43-9e3e-b98a219cfd55" value=""/>
 </sisl>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159C2734-A5D8-4BD8-BFCB-96CEE7BC57F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0822E7E0-5D4B-4A68-A61F-A368201FD55B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
